--- a/xls/ability.xlsx
+++ b/xls/ability.xlsx
@@ -46,23 +46,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>icons/0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>active</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>fireball</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>icons/1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>icons/8</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -71,23 +59,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>icons/20</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>passive</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>icons/16</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>test1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>icons/17</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -184,6 +160,30 @@
   <si>
     <t>"lab":"強化",
 "des":"{#eff}"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icons:0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icons:1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icons:8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icons:20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icons:16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icons:17</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -546,8 +546,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6"/>
@@ -578,13 +578,13 @@
         <v>4</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>5</v>
@@ -595,60 +595,60 @@
         <v>6</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="3" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="31.2">
       <c r="A3" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="E3" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H3" s="3" t="s">
         <v>31</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="31.2">
       <c r="A4" s="1" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="31.2">
@@ -656,53 +656,53 @@
         <v>0</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="31.2">
       <c r="A6" s="1" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="31.2">
       <c r="A7" s="1" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
